--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_NOx.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>727.3640685716418</v>
+        <v>427.9026160537576</v>
       </c>
       <c r="C2">
-        <v>0.2527024558169008</v>
+        <v>0.1486628864409053</v>
       </c>
       <c r="D2">
-        <v>162.2475866324182</v>
+        <v>95.44899145864562</v>
       </c>
       <c r="E2">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F2">
-        <v>249.0801661121329</v>
+        <v>146.531921621845</v>
       </c>
       <c r="G2">
-        <v>688.2374160170933</v>
+        <v>404.8847111160065</v>
       </c>
       <c r="H2">
-        <v>19.43529697764462</v>
+        <v>11.433633829132</v>
       </c>
       <c r="I2">
-        <v>1935.973142704602</v>
+        <v>1138.917920429993</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>727.3640685716418</v>
+        <v>427.9026160537576</v>
       </c>
       <c r="C3">
-        <v>0.3790536837253511</v>
+        <v>0.222994329661358</v>
       </c>
       <c r="D3">
-        <v>195.6515015273278</v>
+        <v>115.1002544060138</v>
       </c>
       <c r="E3">
-        <v>87.70116693900468</v>
+        <v>51.59391340001437</v>
       </c>
       <c r="F3">
-        <v>295.5751304530644</v>
+        <v>173.884546991256</v>
       </c>
       <c r="G3">
-        <v>657.2667322963243</v>
+        <v>386.6648991157863</v>
       </c>
       <c r="H3">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I3">
-        <v>1976.894518122851</v>
+        <v>1162.991646849244</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>861.2895312791865</v>
+        <v>506.6899226103004</v>
       </c>
       <c r="C4">
-        <v>0.315878069771126</v>
+        <v>0.1858286080511317</v>
       </c>
       <c r="D4">
-        <v>219.5114407379775</v>
+        <v>129.1368707969912</v>
       </c>
       <c r="E4">
-        <v>100.9390789297978</v>
+        <v>59.38167391322408</v>
       </c>
       <c r="F4">
-        <v>332.1068881495105</v>
+        <v>195.3758954957933</v>
       </c>
       <c r="G4">
-        <v>399.1777012899141</v>
+        <v>234.8331324472837</v>
       </c>
       <c r="H4">
-        <v>38.87059395528924</v>
+        <v>22.86726765826401</v>
       </c>
       <c r="I4">
-        <v>1952.211112411447</v>
+        <v>1148.470591529908</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>986.2866298062277</v>
+        <v>580.2247420630733</v>
       </c>
       <c r="C5">
-        <v>0.2021619646535207</v>
+        <v>0.1189303091527243</v>
       </c>
       <c r="D5">
-        <v>224.2834285801075</v>
+        <v>131.9441940751865</v>
       </c>
       <c r="E5">
-        <v>109.2127739240435</v>
+        <v>64.24902423398015</v>
       </c>
       <c r="F5">
-        <v>240.7774939083952</v>
+        <v>141.6475242344501</v>
       </c>
       <c r="G5">
-        <v>275.2949664068376</v>
+        <v>161.9538844464026</v>
       </c>
       <c r="H5">
-        <v>17.27581953568411</v>
+        <v>10.16323007033956</v>
       </c>
       <c r="I5">
-        <v>1853.333274125949</v>
+        <v>1090.301529432585</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1188.662884564295</v>
+        <v>699.2811164151832</v>
       </c>
       <c r="C6">
-        <v>0.4422292976795764</v>
+        <v>0.2601600512715843</v>
       </c>
       <c r="D6">
-        <v>224.2834285801075</v>
+        <v>131.9441940751865</v>
       </c>
       <c r="E6">
-        <v>94.32012293440125</v>
+        <v>55.48779365661918</v>
       </c>
       <c r="F6">
-        <v>180.9982540414832</v>
+        <v>106.4798630452074</v>
       </c>
       <c r="G6">
-        <v>134.2062961233332</v>
+        <v>78.95251866762136</v>
       </c>
       <c r="H6">
-        <v>51.82745860705233</v>
+        <v>30.48969021101868</v>
       </c>
       <c r="I6">
-        <v>1874.740674148352</v>
+        <v>1102.895336122108</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1113.66462544807</v>
+        <v>655.1602247435185</v>
       </c>
       <c r="C7">
-        <v>0.2400673330260557</v>
+        <v>0.1412297421188601</v>
       </c>
       <c r="D7">
-        <v>152.7036109481583</v>
+        <v>89.8343449022547</v>
       </c>
       <c r="E7">
-        <v>135.6885979056299</v>
+        <v>79.82454526039956</v>
       </c>
       <c r="F7">
-        <v>106.2742042078433</v>
+        <v>62.52028655865386</v>
       </c>
       <c r="G7">
-        <v>68.8237416017094</v>
+        <v>40.48847111160065</v>
       </c>
       <c r="H7">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I7">
-        <v>1590.3517120962</v>
+        <v>935.5915248713007</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>830.9330930654766</v>
+        <v>488.8314664574836</v>
       </c>
       <c r="C8">
-        <v>0.2021619646535207</v>
+        <v>0.1189303091527243</v>
       </c>
       <c r="D8">
-        <v>143.1596352638984</v>
+        <v>84.21969834586379</v>
       </c>
       <c r="E8">
-        <v>112.5222519217418</v>
+        <v>66.19596436228258</v>
       </c>
       <c r="F8">
-        <v>81.36618759663006</v>
+        <v>47.86709439646934</v>
       </c>
       <c r="G8">
-        <v>89.47086408222219</v>
+        <v>52.63501244508085</v>
       </c>
       <c r="H8">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I8">
-        <v>1268.451581104425</v>
+        <v>746.2201851102951</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>655.9371551276183</v>
+        <v>385.8827192236012</v>
       </c>
       <c r="C9">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D9">
-        <v>104.9837325268588</v>
+        <v>61.7611121203001</v>
       </c>
       <c r="E9">
-        <v>119.1412079171384</v>
+        <v>70.08984461888743</v>
       </c>
       <c r="F9">
-        <v>51.47656766317412</v>
+        <v>30.28326380184796</v>
       </c>
       <c r="G9">
-        <v>68.8237416017094</v>
+        <v>40.48847111160065</v>
       </c>
       <c r="H9">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I9">
-        <v>1007.118809863779</v>
+        <v>592.4801513276997</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>485.1077871406614</v>
+        <v>285.3851326381441</v>
       </c>
       <c r="C10">
-        <v>0.1895268418626756</v>
+        <v>0.111497164830679</v>
       </c>
       <c r="D10">
-        <v>28.63192705277968</v>
+        <v>16.84393966917276</v>
       </c>
       <c r="E10">
-        <v>91.01064493670296</v>
+        <v>53.54085352831677</v>
       </c>
       <c r="F10">
-        <v>49.81603322242657</v>
+        <v>29.306384324369</v>
       </c>
       <c r="G10">
-        <v>65.38255452162387</v>
+        <v>38.46404755602063</v>
       </c>
       <c r="H10">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I10">
-        <v>722.2979511580177</v>
+        <v>424.9222586396463</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>288.0885508908956</v>
+        <v>169.4802505482967</v>
       </c>
       <c r="C11">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D11">
-        <v>52.49186626342941</v>
+        <v>30.88055606015005</v>
       </c>
       <c r="E11">
-        <v>52.95164796317263</v>
+        <v>31.15104205283885</v>
       </c>
       <c r="F11">
-        <v>48.15549878167904</v>
+        <v>28.32950484689003</v>
       </c>
       <c r="G11">
-        <v>55.0589932813675</v>
+        <v>32.39077688928051</v>
       </c>
       <c r="H11">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I11">
-        <v>501.2424037835372</v>
+        <v>294.8770019355497</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>180.3529564461599</v>
+        <v>106.1002394961444</v>
       </c>
       <c r="C12">
-        <v>0.1516214734901405</v>
+        <v>0.08919773186454319</v>
       </c>
       <c r="D12">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="E12">
-        <v>29.7853019792846</v>
+        <v>17.52246115472186</v>
       </c>
       <c r="F12">
-        <v>18.26587884822308</v>
+        <v>10.74567425226863</v>
       </c>
       <c r="G12">
-        <v>37.85305788094013</v>
+        <v>22.26865911138037</v>
       </c>
       <c r="I12">
-        <v>275.9527923123578</v>
+        <v>162.3408783027707</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>105.9499216086352</v>
+        <v>62.32951363139833</v>
       </c>
       <c r="C13">
-        <v>0.07581073674507023</v>
+        <v>0.04459886593227159</v>
       </c>
       <c r="D13">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="E13">
-        <v>14.8926509896423</v>
+        <v>8.761230577360928</v>
       </c>
       <c r="F13">
-        <v>48.15549878167904</v>
+        <v>28.32950484689003</v>
       </c>
       <c r="G13">
-        <v>55.0589932813675</v>
+        <v>32.39077688928051</v>
       </c>
       <c r="I13">
-        <v>233.676851082329</v>
+        <v>137.470271367253</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>64.28422209962139</v>
+        <v>37.81790714714056</v>
       </c>
       <c r="C14">
-        <v>0.0631756139542252</v>
+        <v>0.03716572161022633</v>
       </c>
       <c r="D14">
-        <v>14.31596352638984</v>
+        <v>8.421969834586378</v>
       </c>
       <c r="E14">
-        <v>1.654738998849145</v>
+        <v>0.9734700641512141</v>
       </c>
       <c r="F14">
-        <v>49.81603322242657</v>
+        <v>29.306384324369</v>
       </c>
       <c r="G14">
-        <v>44.7354320411111</v>
+        <v>26.31750622254042</v>
       </c>
       <c r="I14">
-        <v>174.8695655023523</v>
+        <v>102.8744033143978</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>56.54630647651877</v>
+        <v>33.26575165720698</v>
       </c>
       <c r="C15">
-        <v>0.1137161051176053</v>
+        <v>0.0668982988984074</v>
       </c>
       <c r="D15">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="E15">
-        <v>4.964216996547433</v>
+        <v>2.920410192453644</v>
       </c>
       <c r="F15">
-        <v>29.88961993345596</v>
+        <v>17.5838305946214</v>
       </c>
       <c r="G15">
-        <v>44.7354320411111</v>
+        <v>26.31750622254042</v>
       </c>
       <c r="H15">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I15">
-        <v>147.9527446789713</v>
+        <v>87.03944728090421</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>49.99883941081661</v>
+        <v>29.41392778110935</v>
       </c>
       <c r="C16">
-        <v>0.03790536837253512</v>
+        <v>0.0222994329661358</v>
       </c>
       <c r="D16">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="E16">
-        <v>13.23791199079316</v>
+        <v>7.787760513209713</v>
       </c>
       <c r="F16">
-        <v>26.56855105196083</v>
+        <v>15.63007163966346</v>
       </c>
       <c r="G16">
-        <v>44.7354320411111</v>
+        <v>26.31750622254042</v>
       </c>
       <c r="I16">
-        <v>144.1226155473141</v>
+        <v>84.78621214588</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>129.1636684779429</v>
+        <v>75.98598010119912</v>
       </c>
       <c r="C17">
-        <v>0.1137161051176053</v>
+        <v>0.0668982988984074</v>
       </c>
       <c r="D17">
-        <v>38.17590273703957</v>
+        <v>22.45858622556367</v>
       </c>
       <c r="E17">
-        <v>9.928433993094867</v>
+        <v>5.840820384907288</v>
       </c>
       <c r="F17">
-        <v>64.76084318915456</v>
+        <v>38.0982996216797</v>
       </c>
       <c r="G17">
-        <v>79.14730284196575</v>
+        <v>46.56174177834076</v>
       </c>
       <c r="H17">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I17">
-        <v>323.4493447862758</v>
+        <v>190.2827301693814</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>338.0873903017126</v>
+        <v>198.8941783294059</v>
       </c>
       <c r="C18">
-        <v>0.08844585953591527</v>
+        <v>0.05203201025431688</v>
       </c>
       <c r="D18">
-        <v>85.89578115833902</v>
+        <v>50.53181900751827</v>
       </c>
       <c r="E18">
-        <v>59.57060395856921</v>
+        <v>35.04492230944371</v>
       </c>
       <c r="F18">
-        <v>76.38458427438744</v>
+        <v>44.93645596403245</v>
       </c>
       <c r="G18">
-        <v>175.5005410843588</v>
+        <v>103.2456013345817</v>
       </c>
       <c r="H18">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I18">
-        <v>744.1652564047449</v>
+        <v>437.7866239904062</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>650.5801366193165</v>
+        <v>382.7312269613395</v>
       </c>
       <c r="C19">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D19">
-        <v>124.0716838953786</v>
+        <v>72.99040523308192</v>
       </c>
       <c r="E19">
-        <v>117.4864689182893</v>
+        <v>69.11637455473621</v>
       </c>
       <c r="F19">
-        <v>146.1270307857847</v>
+        <v>85.96539401814903</v>
       </c>
       <c r="G19">
-        <v>247.7654697661536</v>
+        <v>145.7584960017624</v>
       </c>
       <c r="H19">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I19">
-        <v>1299.20245172413</v>
+        <v>764.3106827752985</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1119.616868235072</v>
+        <v>658.6618828126984</v>
       </c>
       <c r="C20">
-        <v>0.2400673330260557</v>
+        <v>0.1412297421188601</v>
       </c>
       <c r="D20">
-        <v>167.0195744745481</v>
+        <v>98.25631473684112</v>
       </c>
       <c r="E20">
-        <v>142.3075539010264</v>
+        <v>83.71842551700443</v>
       </c>
       <c r="F20">
-        <v>180.9982540414832</v>
+        <v>106.4798630452074</v>
       </c>
       <c r="G20">
-        <v>347.5598950886321</v>
+        <v>204.4667791135832</v>
       </c>
       <c r="H20">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I20">
-        <v>1970.699077725551</v>
+        <v>1159.346917520208</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1253.542330942616</v>
+        <v>737.4491893692411</v>
       </c>
       <c r="C21">
-        <v>0.2653375786077459</v>
+        <v>0.1560960307629506</v>
       </c>
       <c r="D21">
-        <v>219.5114407379775</v>
+        <v>129.1368707969912</v>
       </c>
       <c r="E21">
-        <v>120.7959469159876</v>
+        <v>71.06331468303864</v>
       </c>
       <c r="F21">
-        <v>205.9062706526965</v>
+        <v>121.1330552073918</v>
       </c>
       <c r="G21">
-        <v>416.3836366903413</v>
+        <v>244.955250225184</v>
       </c>
       <c r="H21">
-        <v>88.53857512038104</v>
+        <v>52.08655411049027</v>
       </c>
       <c r="I21">
-        <v>2304.943538638609</v>
+        <v>1355.9803304231</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>875.5749139679906</v>
+        <v>515.0939019763314</v>
       </c>
       <c r="C22">
-        <v>0.4169590520978863</v>
+        <v>0.2452937626274938</v>
       </c>
       <c r="D22">
-        <v>219.5114407379775</v>
+        <v>129.1368707969912</v>
       </c>
       <c r="E22">
-        <v>109.2127739240435</v>
+        <v>64.24902423398015</v>
       </c>
       <c r="F22">
-        <v>282.2908549270839</v>
+        <v>166.0695111714244</v>
       </c>
       <c r="G22">
-        <v>743.2964092984612</v>
+        <v>437.2754880052871</v>
       </c>
       <c r="H22">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I22">
-        <v>2243.260216559418</v>
+        <v>1319.692512499396</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>616.0571284547051</v>
+        <v>362.4216101600973</v>
       </c>
       <c r="C23">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D23">
-        <v>176.5635501588079</v>
+        <v>103.870961293232</v>
       </c>
       <c r="E23">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F23">
-        <v>357.0149047607238</v>
+        <v>210.0290876579779</v>
       </c>
       <c r="G23">
-        <v>681.3550418569224</v>
+        <v>400.8358640048465</v>
       </c>
       <c r="H23">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I23">
-        <v>1946.56350341952</v>
+        <v>1145.148147149558</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>694.0315089644305</v>
+        <v>408.293330866351</v>
       </c>
       <c r="C24">
-        <v>0.4674995432612665</v>
+        <v>0.2750263399156748</v>
       </c>
       <c r="D24">
-        <v>143.1596352638984</v>
+        <v>84.21969834586379</v>
       </c>
       <c r="E24">
-        <v>84.39168894130638</v>
+        <v>49.64697327171194</v>
       </c>
       <c r="F24">
-        <v>330.446353708763</v>
+        <v>194.3990160183144</v>
       </c>
       <c r="G24">
-        <v>853.4143958611959</v>
+        <v>502.0570417838479</v>
       </c>
       <c r="H24">
-        <v>56.14641349097336</v>
+        <v>33.03049772860357</v>
       </c>
       <c r="I24">
-        <v>2162.057495773829</v>
+        <v>1271.921584354609</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>648.1992395045153</v>
+        <v>381.3305637336676</v>
       </c>
       <c r="C25">
-        <v>0.4295941748887313</v>
+        <v>0.252726906949539</v>
       </c>
       <c r="D25">
-        <v>233.8274042643673</v>
+        <v>137.5588406315775</v>
       </c>
       <c r="E25">
-        <v>110.8675129228927</v>
+        <v>65.22249429813135</v>
       </c>
       <c r="F25">
-        <v>283.9513893678314</v>
+        <v>167.0463906489032</v>
       </c>
       <c r="G25">
-        <v>836.2084604607686</v>
+        <v>491.934924005948</v>
       </c>
       <c r="H25">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I25">
-        <v>2139.39732999879</v>
+        <v>1258.590785330686</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>660.1037250785192</v>
+        <v>388.3338798720271</v>
       </c>
       <c r="C26">
-        <v>0.2653375786077459</v>
+        <v>0.1560960307629506</v>
       </c>
       <c r="D26">
-        <v>167.0195744745481</v>
+        <v>98.25631473684112</v>
       </c>
       <c r="E26">
-        <v>77.77273294590981</v>
+        <v>45.75309301510708</v>
       </c>
       <c r="F26">
-        <v>287.2724582493267</v>
+        <v>169.0001496038612</v>
       </c>
       <c r="G26">
-        <v>915.3557633027341</v>
+        <v>538.4966657842888</v>
       </c>
       <c r="H26">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I26">
-        <v>2133.703320933172</v>
+        <v>1255.241044148398</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>748.1969183261485</v>
+        <v>440.1584192958861</v>
       </c>
       <c r="C27">
-        <v>0.1895268418626756</v>
+        <v>0.111497164830679</v>
       </c>
       <c r="D27">
-        <v>329.2671611069663</v>
+        <v>193.7053061954867</v>
       </c>
       <c r="E27">
-        <v>86.04642794015552</v>
+        <v>50.62044333586314</v>
       </c>
       <c r="F27">
-        <v>287.2724582493267</v>
+        <v>169.0001496038612</v>
       </c>
       <c r="G27">
-        <v>578.1194294543586</v>
+        <v>340.1031573374454</v>
       </c>
       <c r="H27">
-        <v>43.18954883921027</v>
+        <v>25.40807517584891</v>
       </c>
       <c r="I27">
-        <v>2072.281470758029</v>
+        <v>1219.107048109222</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>779.1485808185585</v>
+        <v>458.3670412556204</v>
       </c>
       <c r="C28">
-        <v>0.3537834381436611</v>
+        <v>0.2081280410172675</v>
       </c>
       <c r="D28">
-        <v>162.2475866324182</v>
+        <v>95.44899145864562</v>
       </c>
       <c r="E28">
-        <v>81.08221094360809</v>
+        <v>47.70003314340951</v>
       </c>
       <c r="F28">
-        <v>307.1988715382973</v>
+        <v>180.7227033336088</v>
       </c>
       <c r="G28">
-        <v>736.41403513829</v>
+        <v>433.2266408941269</v>
       </c>
       <c r="H28">
-        <v>32.39216162940771</v>
+        <v>19.05605638188668</v>
       </c>
       <c r="I28">
-        <v>2098.837230138723</v>
+        <v>1234.729594508315</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>817.2429346553713</v>
+        <v>480.7776528983704</v>
       </c>
       <c r="C29">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D29">
-        <v>248.1433677907572</v>
+        <v>145.9808104661638</v>
       </c>
       <c r="E29">
-        <v>110.8675129228927</v>
+        <v>65.22249429813135</v>
       </c>
       <c r="F29">
-        <v>277.3092516048413</v>
+        <v>163.1388727389875</v>
       </c>
       <c r="G29">
-        <v>554.0311198937603</v>
+        <v>325.9321924483851</v>
       </c>
       <c r="H29">
-        <v>32.39216162940771</v>
+        <v>19.05605638188668</v>
       </c>
       <c r="I29">
-        <v>2040.163240216102</v>
+        <v>1200.212143252434</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1092.236551414863</v>
+        <v>642.554255694472</v>
       </c>
       <c r="C30">
-        <v>0.315878069771126</v>
+        <v>0.1858286080511317</v>
       </c>
       <c r="D30">
-        <v>195.6515015273278</v>
+        <v>115.1002544060138</v>
       </c>
       <c r="E30">
-        <v>105.9032959263453</v>
+        <v>62.3020841056777</v>
       </c>
       <c r="F30">
-        <v>180.9982540414832</v>
+        <v>106.4798630452074</v>
       </c>
       <c r="G30">
-        <v>412.9424496102561</v>
+        <v>242.9308266696039</v>
       </c>
       <c r="H30">
-        <v>28.07320674548668</v>
+        <v>16.51524886430179</v>
       </c>
       <c r="I30">
-        <v>2016.121137335533</v>
+        <v>1186.068361393328</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1058.903991807652</v>
+        <v>622.944970507066</v>
       </c>
       <c r="C31">
-        <v>0.4674995432612665</v>
+        <v>0.2750263399156748</v>
       </c>
       <c r="D31">
-        <v>152.7036109481583</v>
+        <v>89.8343449022547</v>
       </c>
       <c r="E31">
-        <v>160.5096828883671</v>
+        <v>94.42659622266778</v>
       </c>
       <c r="F31">
-        <v>86.34779091887273</v>
+        <v>50.79773282890625</v>
       </c>
       <c r="G31">
-        <v>209.9124118852134</v>
+        <v>123.489836890382</v>
       </c>
       <c r="H31">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I31">
-        <v>1673.163942875446</v>
+        <v>984.3093152087774</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>906.5265764604018</v>
+        <v>533.3025239360654</v>
       </c>
       <c r="C32">
-        <v>0.5685805255880269</v>
+        <v>0.334491494492037</v>
       </c>
       <c r="D32">
-        <v>109.7557203689888</v>
+        <v>64.56843539849559</v>
       </c>
       <c r="E32">
-        <v>140.6528149021774</v>
+        <v>82.74495545285322</v>
       </c>
       <c r="F32">
-        <v>89.66885980036788</v>
+        <v>52.7514917838642</v>
       </c>
       <c r="G32">
-        <v>175.5005410843588</v>
+        <v>103.2456013345817</v>
       </c>
       <c r="H32">
-        <v>17.27581953568411</v>
+        <v>10.16323007033956</v>
       </c>
       <c r="I32">
-        <v>1439.948912677567</v>
+        <v>847.1107294706917</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>658.3180522424188</v>
+        <v>387.283382451273</v>
       </c>
       <c r="C33">
-        <v>0.5938507711697169</v>
+        <v>0.3493577831361275</v>
       </c>
       <c r="D33">
-        <v>124.0716838953786</v>
+        <v>72.99040523308192</v>
       </c>
       <c r="E33">
-        <v>140.6528149021774</v>
+        <v>82.74495545285322</v>
       </c>
       <c r="F33">
-        <v>59.77923986691192</v>
+        <v>35.16766118924279</v>
       </c>
       <c r="G33">
-        <v>110.117986562735</v>
+        <v>64.78155377856102</v>
       </c>
       <c r="H33">
-        <v>17.27581953568411</v>
+        <v>10.16323007033956</v>
       </c>
       <c r="I33">
-        <v>1110.809447776476</v>
+        <v>653.4805459584876</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>491.6552542063636</v>
+        <v>289.2369565142419</v>
       </c>
       <c r="C34">
-        <v>0.4548644204704214</v>
+        <v>0.2675931955936296</v>
       </c>
       <c r="D34">
-        <v>71.57981763194918</v>
+        <v>42.1098491729319</v>
       </c>
       <c r="E34">
-        <v>92.66538393555211</v>
+        <v>54.514323592468</v>
       </c>
       <c r="F34">
-        <v>34.87122325569862</v>
+        <v>20.5144690270583</v>
       </c>
       <c r="G34">
-        <v>110.117986562735</v>
+        <v>64.78155377856102</v>
       </c>
       <c r="I34">
-        <v>801.3445300127689</v>
+        <v>471.4247452808548</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>342.8491845313138</v>
+        <v>201.6955047847497</v>
       </c>
       <c r="C35">
-        <v>0.2274322102352107</v>
+        <v>0.1337965977968148</v>
       </c>
       <c r="D35">
-        <v>47.71987842129948</v>
+        <v>28.0732327819546</v>
       </c>
       <c r="E35">
-        <v>76.11799394706064</v>
+        <v>44.77962295095585</v>
       </c>
       <c r="F35">
-        <v>36.53175769644616</v>
+        <v>21.49134850453726</v>
       </c>
       <c r="G35">
-        <v>65.38255452162387</v>
+        <v>38.46404755602063</v>
       </c>
       <c r="H35">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I35">
-        <v>573.1477562119002</v>
+        <v>337.1783606935998</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>195.8287876923651</v>
+        <v>115.2045504760115</v>
       </c>
       <c r="C36">
-        <v>0.4927697888429566</v>
+        <v>0.2898926285597655</v>
       </c>
       <c r="D36">
-        <v>4.771987842129946</v>
+        <v>2.807323278195459</v>
       </c>
       <c r="E36">
-        <v>36.40425797468119</v>
+        <v>21.41634141132671</v>
       </c>
       <c r="F36">
-        <v>107.934738648591</v>
+        <v>63.49716603613284</v>
       </c>
       <c r="G36">
-        <v>92.91205116230765</v>
+        <v>54.65943600066088</v>
       </c>
       <c r="H36">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I36">
-        <v>440.5040705508783</v>
+        <v>259.1451135896796</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>103.5690244938344</v>
+        <v>60.92885040372649</v>
       </c>
       <c r="C37">
-        <v>0.2527024558169008</v>
+        <v>0.1486628864409053</v>
       </c>
       <c r="D37">
-        <v>4.771987842129946</v>
+        <v>2.807323278195459</v>
       </c>
       <c r="E37">
-        <v>13.23791199079316</v>
+        <v>7.787760513209713</v>
       </c>
       <c r="F37">
-        <v>68.08191207064969</v>
+        <v>40.05205857663762</v>
       </c>
       <c r="G37">
-        <v>72.26492868179483</v>
+        <v>42.51289466718067</v>
       </c>
       <c r="H37">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I37">
-        <v>268.6568998609005</v>
+        <v>158.0487616017682</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>74.40303483752473</v>
+        <v>43.77072586474605</v>
       </c>
       <c r="C38">
-        <v>0.0631756139542252</v>
+        <v>0.03716572161022633</v>
       </c>
       <c r="D38">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="F38">
-        <v>43.17389545943637</v>
+        <v>25.39886641445312</v>
       </c>
       <c r="G38">
-        <v>68.8237416017094</v>
+        <v>40.48847111160065</v>
       </c>
       <c r="H38">
-        <v>10.79738720980257</v>
+        <v>6.352018793962228</v>
       </c>
       <c r="I38">
-        <v>206.8052104066872</v>
+        <v>121.6618944627632</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>54.16540936171801</v>
+        <v>31.86508842953512</v>
       </c>
       <c r="C39">
-        <v>0.08844585953591527</v>
+        <v>0.05203201025431688</v>
       </c>
       <c r="D39">
-        <v>23.85993921064974</v>
+        <v>14.0366163909773</v>
       </c>
       <c r="F39">
-        <v>19.92641328897064</v>
+        <v>11.7225537297476</v>
       </c>
       <c r="G39">
-        <v>61.94136744153841</v>
+        <v>36.4396240004406</v>
       </c>
       <c r="H39">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I39">
-        <v>162.1410526043732</v>
+        <v>95.38631831974737</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>54.7606336404182</v>
+        <v>32.21525423645308</v>
       </c>
       <c r="C40">
-        <v>0.07581073674507023</v>
+        <v>0.04459886593227159</v>
       </c>
       <c r="D40">
-        <v>9.543975684259893</v>
+        <v>5.614646556390919</v>
       </c>
       <c r="E40">
-        <v>14.8926509896423</v>
+        <v>8.761230577360928</v>
       </c>
       <c r="F40">
-        <v>33.21068881495105</v>
+        <v>19.53758954957933</v>
       </c>
       <c r="G40">
-        <v>55.0589932813675</v>
+        <v>32.39077688928051</v>
       </c>
       <c r="H40">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I40">
-        <v>171.8617080313051</v>
+        <v>101.1049041925819</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>139.8777054945465</v>
+        <v>82.2889646257225</v>
       </c>
       <c r="C41">
-        <v>0.1010809823267603</v>
+        <v>0.05946515457636214</v>
       </c>
       <c r="D41">
-        <v>19.08795136851979</v>
+        <v>11.22929311278184</v>
       </c>
       <c r="E41">
-        <v>11.58317299194401</v>
+        <v>6.8142904490585</v>
       </c>
       <c r="F41">
-        <v>31.55015437420349</v>
+        <v>18.56071007210036</v>
       </c>
       <c r="G41">
-        <v>86.02967700213667</v>
+        <v>50.61058888950081</v>
       </c>
       <c r="H41">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I41">
-        <v>290.3892196556378</v>
+        <v>170.8337160625328</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>324.3972318916078</v>
+        <v>190.8403647702928</v>
       </c>
       <c r="C42">
-        <v>0.2021619646535207</v>
+        <v>0.1189303091527243</v>
       </c>
       <c r="D42">
-        <v>71.57981763194918</v>
+        <v>42.1098491729319</v>
       </c>
       <c r="E42">
-        <v>66.1895599539658</v>
+        <v>38.93880256604857</v>
       </c>
       <c r="F42">
-        <v>81.36618759663006</v>
+        <v>47.86709439646934</v>
       </c>
       <c r="G42">
-        <v>151.4122315237605</v>
+        <v>89.07463644552146</v>
       </c>
       <c r="H42">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I42">
-        <v>708.1040552143299</v>
+        <v>416.5721002131714</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>639.8660996027126</v>
+        <v>376.428242436816</v>
       </c>
       <c r="C43">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D43">
-        <v>81.12379331620909</v>
+        <v>47.72449572932281</v>
       </c>
       <c r="E43">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F43">
-        <v>139.4848930227945</v>
+        <v>82.05787610823322</v>
       </c>
       <c r="G43">
-        <v>189.2652894047007</v>
+        <v>111.3432955569018</v>
       </c>
       <c r="H43">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I43">
-        <v>1178.743467005064</v>
+        <v>693.4456003280883</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1044.023384840147</v>
+        <v>614.190825334116</v>
       </c>
       <c r="C44">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D44">
-        <v>181.3355380009378</v>
+        <v>106.6782845714275</v>
       </c>
       <c r="E44">
-        <v>143.9622928998756</v>
+        <v>84.69189558115568</v>
       </c>
       <c r="F44">
-        <v>185.9798573637259</v>
+        <v>109.4105014776442</v>
       </c>
       <c r="G44">
-        <v>309.706837207692</v>
+        <v>182.198120002203</v>
       </c>
       <c r="H44">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I44">
-        <v>1891.098531334976</v>
+        <v>1112.518536092564</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1217.828874220604</v>
+        <v>716.4392409541628</v>
       </c>
       <c r="C45">
-        <v>0.2653375786077459</v>
+        <v>0.1560960307629506</v>
       </c>
       <c r="D45">
-        <v>205.1954772115877</v>
+        <v>120.7149009624047</v>
       </c>
       <c r="E45">
-        <v>124.1054249136858</v>
+        <v>73.01025481134107</v>
       </c>
       <c r="F45">
-        <v>185.9798573637259</v>
+        <v>109.4105014776442</v>
       </c>
       <c r="G45">
-        <v>361.3246434089741</v>
+        <v>212.5644733359033</v>
       </c>
       <c r="H45">
-        <v>49.66798116509182</v>
+        <v>29.21928645222624</v>
       </c>
       <c r="I45">
-        <v>2144.367595862277</v>
+        <v>1261.514754024445</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1024.976207921741</v>
+        <v>602.9855195127417</v>
       </c>
       <c r="C46">
-        <v>0.3664185609345062</v>
+        <v>0.2155611853393127</v>
       </c>
       <c r="D46">
-        <v>257.687343475017</v>
+        <v>151.5954570225549</v>
       </c>
       <c r="E46">
-        <v>110.8675129228927</v>
+        <v>65.22249429813135</v>
       </c>
       <c r="F46">
-        <v>355.3543703199763</v>
+        <v>209.052208180499</v>
       </c>
       <c r="G46">
-        <v>698.5609772573498</v>
+        <v>410.9579817827467</v>
       </c>
       <c r="H46">
-        <v>38.87059395528924</v>
+        <v>22.86726765826401</v>
       </c>
       <c r="I46">
-        <v>2486.683424413201</v>
+        <v>1462.896489640277</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>702.3646488662334</v>
+        <v>413.1956521632025</v>
       </c>
       <c r="C47">
-        <v>0.4548644204704214</v>
+        <v>0.2675931955936296</v>
       </c>
       <c r="D47">
-        <v>147.9316231060284</v>
+        <v>87.02702162405924</v>
       </c>
       <c r="E47">
-        <v>97.62960093209955</v>
+        <v>57.43473378492163</v>
       </c>
       <c r="F47">
-        <v>435.0600234758587</v>
+        <v>255.9424230994892</v>
       </c>
       <c r="G47">
-        <v>492.0897524522216</v>
+        <v>289.4925684479446</v>
       </c>
       <c r="H47">
-        <v>36.71111651332873</v>
+        <v>21.59686389947157</v>
       </c>
       <c r="I47">
-        <v>1912.241629766241</v>
+        <v>1124.956856214682</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>770.2202166380562</v>
+        <v>453.1145541518511</v>
       </c>
       <c r="C48">
-        <v>0.5180400344246466</v>
+        <v>0.304758917203856</v>
       </c>
       <c r="D48">
-        <v>357.8990881597462</v>
+        <v>210.5492458646595</v>
       </c>
       <c r="E48">
-        <v>104.2485569274961</v>
+        <v>61.32861404152651</v>
       </c>
       <c r="F48">
-        <v>420.1152135091309</v>
+        <v>247.1505078021786</v>
       </c>
       <c r="G48">
-        <v>643.5019839759825</v>
+        <v>378.5672048934661</v>
       </c>
       <c r="H48">
-        <v>51.82745860705233</v>
+        <v>30.48969021101868</v>
       </c>
       <c r="I48">
-        <v>2348.330557851889</v>
+        <v>1381.504575881904</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>648.1992395045153</v>
+        <v>381.3305637336676</v>
       </c>
       <c r="C49">
-        <v>0.4295941748887313</v>
+        <v>0.252726906949539</v>
       </c>
       <c r="D49">
-        <v>233.8274042643673</v>
+        <v>137.5588406315775</v>
       </c>
       <c r="E49">
-        <v>110.8675129228927</v>
+        <v>65.22249429813135</v>
       </c>
       <c r="F49">
-        <v>283.9513893678314</v>
+        <v>167.0463906489032</v>
       </c>
       <c r="G49">
-        <v>836.2084604607686</v>
+        <v>491.934924005948</v>
       </c>
       <c r="H49">
-        <v>25.91372930352616</v>
+        <v>15.24484510550934</v>
       </c>
       <c r="I49">
-        <v>2139.39732999879</v>
+        <v>1258.590785330686</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_NOx.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>427.9026160537576</v>
+        <v>388.4688301091697</v>
       </c>
       <c r="C2">
-        <v>0.1486628864409053</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D2">
-        <v>95.44899145864562</v>
+        <v>162.0608575158805</v>
       </c>
       <c r="E2">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F2">
-        <v>146.531921621845</v>
+        <v>248.5842946335061</v>
       </c>
       <c r="G2">
-        <v>404.8847111160065</v>
+        <v>687.4724961572298</v>
       </c>
       <c r="H2">
-        <v>11.433633829132</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I2">
-        <v>1138.917920429993</v>
+        <v>1595.630383787101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>427.9026160537576</v>
+        <v>388.4688301091697</v>
       </c>
       <c r="C3">
-        <v>0.222994329661358</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D3">
-        <v>115.1002544060138</v>
+        <v>195.4263281809147</v>
       </c>
       <c r="E3">
-        <v>51.59391340001437</v>
+        <v>87.70116693900468</v>
       </c>
       <c r="F3">
-        <v>173.884546991256</v>
+        <v>294.9866962984273</v>
       </c>
       <c r="G3">
-        <v>386.6648991157863</v>
+        <v>656.5362338301541</v>
       </c>
       <c r="H3">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I3">
-        <v>1162.991646849244</v>
+        <v>1636.455173693159</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>506.6899226103004</v>
+        <v>459.9954150310704</v>
       </c>
       <c r="C4">
-        <v>0.1858286080511317</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D4">
-        <v>129.1368707969912</v>
+        <v>219.2588072273678</v>
       </c>
       <c r="E4">
-        <v>59.38167391322408</v>
+        <v>100.9390789297978</v>
       </c>
       <c r="F4">
-        <v>195.3758954957933</v>
+        <v>331.445726178008</v>
       </c>
       <c r="G4">
-        <v>234.8331324472837</v>
+        <v>398.7340477711932</v>
       </c>
       <c r="H4">
-        <v>22.86726765826401</v>
+        <v>38.87059395528924</v>
       </c>
       <c r="I4">
-        <v>1148.470591529908</v>
+        <v>1549.559547162498</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>580.2247420630733</v>
+        <v>526.7535609581782</v>
       </c>
       <c r="C5">
-        <v>0.1189303091527243</v>
+        <v>0.2021619646535207</v>
       </c>
       <c r="D5">
-        <v>131.9441940751865</v>
+        <v>224.0253030366583</v>
       </c>
       <c r="E5">
-        <v>64.24902423398015</v>
+        <v>109.2127739240435</v>
       </c>
       <c r="F5">
-        <v>141.6475242344501</v>
+        <v>240.2981514790559</v>
       </c>
       <c r="G5">
-        <v>161.9538844464026</v>
+        <v>274.988998462892</v>
       </c>
       <c r="H5">
-        <v>10.16323007033956</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I5">
-        <v>1090.301529432585</v>
+        <v>1392.756769361166</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>699.2811164151832</v>
+        <v>634.838178173495</v>
       </c>
       <c r="C6">
-        <v>0.2601600512715843</v>
+        <v>0.4422292976795764</v>
       </c>
       <c r="D6">
-        <v>131.9441940751865</v>
+        <v>224.0253030366583</v>
       </c>
       <c r="E6">
-        <v>55.48779365661918</v>
+        <v>94.32012293440125</v>
       </c>
       <c r="F6">
-        <v>106.4798630452074</v>
+        <v>180.6379207670144</v>
       </c>
       <c r="G6">
-        <v>78.95251866762136</v>
+        <v>134.0571367506597</v>
       </c>
       <c r="H6">
-        <v>30.48969021101868</v>
+        <v>51.82745860705233</v>
       </c>
       <c r="I6">
-        <v>1102.895336122108</v>
+        <v>1320.14834956696</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>655.1602247435185</v>
+        <v>594.7832906172308</v>
       </c>
       <c r="C7">
-        <v>0.1412297421188601</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D7">
-        <v>89.8343449022547</v>
+        <v>152.5278658972993</v>
       </c>
       <c r="E7">
-        <v>79.82454526039956</v>
+        <v>135.6885979056299</v>
       </c>
       <c r="F7">
-        <v>62.52028655865386</v>
+        <v>106.0626323769625</v>
       </c>
       <c r="G7">
-        <v>40.48847111160065</v>
+        <v>68.74724961572299</v>
       </c>
       <c r="H7">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I7">
-        <v>935.5915248713007</v>
+        <v>1071.006568397635</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>488.8314664574836</v>
+        <v>443.7827224487732</v>
       </c>
       <c r="C8">
-        <v>0.1189303091527243</v>
+        <v>0.2021619646535207</v>
       </c>
       <c r="D8">
-        <v>84.21969834586379</v>
+        <v>142.994874278718</v>
       </c>
       <c r="E8">
-        <v>66.19596436228258</v>
+        <v>112.5222519217418</v>
       </c>
       <c r="F8">
-        <v>47.86709439646934</v>
+        <v>81.20420291361197</v>
       </c>
       <c r="G8">
-        <v>52.63501244508085</v>
+        <v>89.37142450043984</v>
       </c>
       <c r="H8">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I8">
-        <v>746.2201851102951</v>
+        <v>880.8750252377409</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>385.8827192236012</v>
+        <v>350.3213181508222</v>
       </c>
       <c r="C9">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D9">
-        <v>61.7611121203001</v>
+        <v>104.8629078043932</v>
       </c>
       <c r="E9">
-        <v>70.08984461888743</v>
+        <v>119.1412079171384</v>
       </c>
       <c r="F9">
-        <v>30.28326380184796</v>
+        <v>51.37408755759124</v>
       </c>
       <c r="G9">
-        <v>40.48847111160065</v>
+        <v>68.74724961572299</v>
       </c>
       <c r="H9">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I9">
-        <v>592.4801513276997</v>
+        <v>701.2031760729482</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>285.3851326381441</v>
+        <v>259.0851853837752</v>
       </c>
       <c r="C10">
-        <v>0.111497164830679</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D10">
-        <v>16.84393966917276</v>
+        <v>28.59897485574363</v>
       </c>
       <c r="E10">
-        <v>53.54085352831677</v>
+        <v>91.01064493670296</v>
       </c>
       <c r="F10">
-        <v>29.306384324369</v>
+        <v>49.71685892670122</v>
       </c>
       <c r="G10">
-        <v>38.46404755602063</v>
+        <v>65.30988713493677</v>
       </c>
       <c r="H10">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I10">
-        <v>424.9222586396463</v>
+        <v>496.070555521683</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>169.4802505482967</v>
+        <v>153.861631565334</v>
       </c>
       <c r="C11">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D11">
-        <v>30.88055606015005</v>
+        <v>52.43145390219661</v>
       </c>
       <c r="E11">
-        <v>31.15104205283885</v>
+        <v>52.95164796317263</v>
       </c>
       <c r="F11">
-        <v>28.32950484689003</v>
+        <v>48.05963029581118</v>
       </c>
       <c r="G11">
-        <v>32.39077688928051</v>
+        <v>54.99779969257838</v>
       </c>
       <c r="H11">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I11">
-        <v>294.8770019355497</v>
+        <v>366.7980100220856</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>106.1002394961444</v>
+        <v>96.32246769482677</v>
       </c>
       <c r="C12">
-        <v>0.08919773186454319</v>
+        <v>0.1516214734901405</v>
       </c>
       <c r="D12">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="E12">
-        <v>17.52246115472186</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F12">
-        <v>10.74567425226863</v>
+        <v>18.22951493979045</v>
       </c>
       <c r="G12">
-        <v>22.26865911138037</v>
+        <v>37.81098728864763</v>
       </c>
       <c r="I12">
-        <v>162.3408783027707</v>
+        <v>191.8328849946208</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>62.32951363139833</v>
+        <v>56.58547607154842</v>
       </c>
       <c r="C13">
-        <v>0.04459886593227159</v>
+        <v>0.07581073674507023</v>
       </c>
       <c r="D13">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="E13">
-        <v>8.761230577360928</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F13">
-        <v>28.32950484689003</v>
+        <v>48.05963029581118</v>
       </c>
       <c r="G13">
-        <v>32.39077688928051</v>
+        <v>54.99779969257838</v>
       </c>
       <c r="I13">
-        <v>137.470271367253</v>
+        <v>184.1443594049066</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>37.81790714714056</v>
+        <v>34.33276076251251</v>
       </c>
       <c r="C14">
-        <v>0.03716572161022633</v>
+        <v>0.0631756139542252</v>
       </c>
       <c r="D14">
-        <v>8.421969834586378</v>
+        <v>14.29948742787182</v>
       </c>
       <c r="E14">
-        <v>0.9734700641512141</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F14">
-        <v>29.306384324369</v>
+        <v>49.71685892670122</v>
       </c>
       <c r="G14">
-        <v>26.31750622254042</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="I14">
-        <v>102.8744033143978</v>
+        <v>144.7527339801088</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>33.26575165720698</v>
+        <v>30.20011363369157</v>
       </c>
       <c r="C15">
-        <v>0.0668982988984074</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D15">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="E15">
-        <v>2.920410192453644</v>
+        <v>4.964216996547433</v>
       </c>
       <c r="F15">
-        <v>17.5838305946214</v>
+        <v>29.83011535602073</v>
       </c>
       <c r="G15">
-        <v>26.31750622254042</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="H15">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I15">
-        <v>87.03944728090421</v>
+        <v>121.486343402139</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>29.41392778110935</v>
+        <v>26.70325837084307</v>
       </c>
       <c r="C16">
-        <v>0.0222994329661358</v>
+        <v>0.03790536837253512</v>
       </c>
       <c r="D16">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="E16">
-        <v>7.787760513209713</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F16">
-        <v>15.63007163966346</v>
+        <v>26.51565809424063</v>
       </c>
       <c r="G16">
-        <v>26.31750622254042</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="I16">
-        <v>84.78621214588</v>
+        <v>120.7134376930505</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>75.98598010119912</v>
+        <v>68.98341745801127</v>
       </c>
       <c r="C17">
-        <v>0.0668982988984074</v>
+        <v>0.1137161051176053</v>
       </c>
       <c r="D17">
-        <v>22.45858622556367</v>
+        <v>38.13196647432483</v>
       </c>
       <c r="E17">
-        <v>5.840820384907288</v>
+        <v>9.928433993094867</v>
       </c>
       <c r="F17">
-        <v>38.0982996216797</v>
+        <v>64.63191660471155</v>
       </c>
       <c r="G17">
-        <v>46.56174177834076</v>
+        <v>79.05933705808137</v>
       </c>
       <c r="H17">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I17">
-        <v>190.2827301693814</v>
+        <v>263.008265135302</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>198.8941783294059</v>
+        <v>180.564889936177</v>
       </c>
       <c r="C18">
-        <v>0.05203201025431688</v>
+        <v>0.08844585953591527</v>
       </c>
       <c r="D18">
-        <v>50.53181900751827</v>
+        <v>85.79692456723085</v>
       </c>
       <c r="E18">
-        <v>35.04492230944371</v>
+        <v>59.57060395856921</v>
       </c>
       <c r="F18">
-        <v>44.93645596403245</v>
+        <v>76.23251702094186</v>
       </c>
       <c r="G18">
-        <v>103.2456013345817</v>
+        <v>175.3054865200935</v>
       </c>
       <c r="H18">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I18">
-        <v>437.7866239904062</v>
+        <v>586.1967776303904</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>382.7312269613395</v>
+        <v>347.460254753946</v>
       </c>
       <c r="C19">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D19">
-        <v>72.99040523308192</v>
+        <v>123.9288910415557</v>
       </c>
       <c r="E19">
-        <v>69.11637455473621</v>
+        <v>117.4864689182893</v>
       </c>
       <c r="F19">
-        <v>85.96539401814903</v>
+        <v>145.8361195183236</v>
       </c>
       <c r="G19">
-        <v>145.7584960017624</v>
+        <v>247.4900986166026</v>
       </c>
       <c r="H19">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I19">
-        <v>764.3106827752985</v>
+        <v>995.3734945879247</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>658.6618828126984</v>
+        <v>597.9622499470929</v>
       </c>
       <c r="C20">
-        <v>0.1412297421188601</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D20">
-        <v>98.25631473684112</v>
+        <v>166.8273533251711</v>
       </c>
       <c r="E20">
-        <v>83.71842551700443</v>
+        <v>142.3075539010264</v>
       </c>
       <c r="F20">
-        <v>106.4798630452074</v>
+        <v>180.6379207670144</v>
       </c>
       <c r="G20">
-        <v>204.4667791135832</v>
+        <v>347.1736105594009</v>
       </c>
       <c r="H20">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I20">
-        <v>1159.346917520208</v>
+        <v>1448.105620484495</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>737.4491893692411</v>
+        <v>669.4888348689946</v>
       </c>
       <c r="C21">
-        <v>0.1560960307629506</v>
+        <v>0.2653375786077459</v>
       </c>
       <c r="D21">
-        <v>129.1368707969912</v>
+        <v>219.2588072273678</v>
       </c>
       <c r="E21">
-        <v>71.06331468303864</v>
+        <v>120.7959469159876</v>
       </c>
       <c r="F21">
-        <v>121.1330552073918</v>
+        <v>205.496350230365</v>
       </c>
       <c r="G21">
-        <v>244.955250225184</v>
+        <v>415.9208601751239</v>
       </c>
       <c r="H21">
-        <v>52.08655411049027</v>
+        <v>88.53857512038104</v>
       </c>
       <c r="I21">
-        <v>1355.9803304231</v>
+        <v>1719.764712116828</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>515.0939019763314</v>
+        <v>467.6249174227399</v>
       </c>
       <c r="C22">
-        <v>0.2452937626274938</v>
+        <v>0.4169590520978863</v>
       </c>
       <c r="D22">
-        <v>129.1368707969912</v>
+        <v>219.2588072273678</v>
       </c>
       <c r="E22">
-        <v>64.24902423398015</v>
+        <v>109.2127739240435</v>
       </c>
       <c r="F22">
-        <v>166.0695111714244</v>
+        <v>281.728867251307</v>
       </c>
       <c r="G22">
-        <v>437.2754880052871</v>
+        <v>742.4702958498078</v>
       </c>
       <c r="H22">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I22">
-        <v>1319.692512499396</v>
+        <v>1833.669485379127</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>362.4216101600973</v>
+        <v>329.0222906407453</v>
       </c>
       <c r="C23">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D23">
-        <v>103.870961293232</v>
+        <v>176.3603449437523</v>
       </c>
       <c r="E23">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F23">
-        <v>210.0290876579779</v>
+        <v>356.3041556413585</v>
       </c>
       <c r="G23">
-        <v>400.8358640048465</v>
+        <v>680.5977711956572</v>
       </c>
       <c r="H23">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I23">
-        <v>1145.148147149558</v>
+        <v>1657.857440609873</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>408.293330866351</v>
+        <v>370.6666578619408</v>
       </c>
       <c r="C24">
-        <v>0.2750263399156748</v>
+        <v>0.4674995432612665</v>
       </c>
       <c r="D24">
-        <v>84.21969834586379</v>
+        <v>142.994874278718</v>
       </c>
       <c r="E24">
-        <v>49.64697327171194</v>
+        <v>84.39168894130638</v>
       </c>
       <c r="F24">
-        <v>194.3990160183144</v>
+        <v>329.788497547118</v>
       </c>
       <c r="G24">
-        <v>502.0570417838479</v>
+        <v>852.4658952349645</v>
       </c>
       <c r="H24">
-        <v>33.03049772860357</v>
+        <v>56.14641349097336</v>
       </c>
       <c r="I24">
-        <v>1271.921584354609</v>
+        <v>1836.921526898282</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>381.3305637336676</v>
+        <v>346.1886710220012</v>
       </c>
       <c r="C25">
-        <v>0.252726906949539</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D25">
-        <v>137.5588406315775</v>
+        <v>233.5582946552396</v>
       </c>
       <c r="E25">
-        <v>65.22249429813135</v>
+        <v>110.8675129228927</v>
       </c>
       <c r="F25">
-        <v>167.0463906489032</v>
+        <v>283.3860958821968</v>
       </c>
       <c r="G25">
-        <v>491.934924005948</v>
+        <v>835.2790828310341</v>
       </c>
       <c r="H25">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I25">
-        <v>1258.590785330686</v>
+        <v>1835.62298079178</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>388.3338798720271</v>
+        <v>352.5465896817255</v>
       </c>
       <c r="C26">
-        <v>0.1560960307629506</v>
+        <v>0.2653375786077459</v>
       </c>
       <c r="D26">
-        <v>98.25631473684112</v>
+        <v>166.8273533251711</v>
       </c>
       <c r="E26">
-        <v>45.75309301510708</v>
+        <v>77.77273294590981</v>
       </c>
       <c r="F26">
-        <v>169.0001496038612</v>
+        <v>286.7005531439771</v>
       </c>
       <c r="G26">
-        <v>538.4966657842888</v>
+        <v>914.3384198891155</v>
       </c>
       <c r="H26">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I26">
-        <v>1255.241044148398</v>
+        <v>1824.364715868033</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>440.1584192958861</v>
+        <v>399.5951877636872</v>
       </c>
       <c r="C27">
-        <v>0.111497164830679</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D27">
-        <v>193.7053061954867</v>
+        <v>328.8882108410515</v>
       </c>
       <c r="E27">
-        <v>50.62044333586314</v>
+        <v>86.04642794015552</v>
       </c>
       <c r="F27">
-        <v>169.0001496038612</v>
+        <v>286.7005531439771</v>
       </c>
       <c r="G27">
-        <v>340.1031573374454</v>
+        <v>577.4768967720727</v>
       </c>
       <c r="H27">
-        <v>25.40807517584891</v>
+        <v>43.18954883921027</v>
       </c>
       <c r="I27">
-        <v>1219.107048109222</v>
+        <v>1722.086352142017</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>458.3670412556204</v>
+        <v>416.1257762789709</v>
       </c>
       <c r="C28">
-        <v>0.2081280410172675</v>
+        <v>0.3537834381436611</v>
       </c>
       <c r="D28">
-        <v>95.44899145864562</v>
+        <v>162.0608575158805</v>
       </c>
       <c r="E28">
-        <v>47.70003314340951</v>
+        <v>81.08221094360809</v>
       </c>
       <c r="F28">
-        <v>180.7227033336088</v>
+        <v>306.5872967146574</v>
       </c>
       <c r="G28">
-        <v>433.2266408941269</v>
+        <v>735.5955708882358</v>
       </c>
       <c r="H28">
-        <v>19.05605638188668</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I28">
-        <v>1234.729594508315</v>
+        <v>1734.197657408904</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>480.7776528983704</v>
+        <v>436.4711159900897</v>
       </c>
       <c r="C29">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D29">
-        <v>145.9808104661638</v>
+        <v>247.8577820831113</v>
       </c>
       <c r="E29">
-        <v>65.22249429813135</v>
+        <v>110.8675129228927</v>
       </c>
       <c r="F29">
-        <v>163.1388727389875</v>
+        <v>276.7571813586367</v>
       </c>
       <c r="G29">
-        <v>325.9321924483851</v>
+        <v>553.4153594065699</v>
       </c>
       <c r="H29">
-        <v>19.05605638188668</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I29">
-        <v>1200.212143252434</v>
+        <v>1657.93800510978</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>642.554255694472</v>
+        <v>583.3390370297271</v>
       </c>
       <c r="C30">
-        <v>0.1858286080511317</v>
+        <v>0.315878069771126</v>
       </c>
       <c r="D30">
-        <v>115.1002544060138</v>
+        <v>195.4263281809147</v>
       </c>
       <c r="E30">
-        <v>62.3020841056777</v>
+        <v>105.9032959263453</v>
       </c>
       <c r="F30">
-        <v>106.4798630452074</v>
+        <v>180.6379207670144</v>
       </c>
       <c r="G30">
-        <v>242.9308266696039</v>
+        <v>412.4834976943378</v>
       </c>
       <c r="H30">
-        <v>16.51524886430179</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I30">
-        <v>1186.068361393328</v>
+        <v>1506.179164413597</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>622.944970507066</v>
+        <v>565.536864782498</v>
       </c>
       <c r="C31">
-        <v>0.2750263399156748</v>
+        <v>0.4674995432612665</v>
       </c>
       <c r="D31">
-        <v>89.8343449022547</v>
+        <v>152.5278658972993</v>
       </c>
       <c r="E31">
-        <v>94.42659622266778</v>
+        <v>160.5096828883671</v>
       </c>
       <c r="F31">
-        <v>50.79773282890625</v>
+        <v>86.17588880628209</v>
       </c>
       <c r="G31">
-        <v>123.489836890382</v>
+        <v>209.679111327955</v>
       </c>
       <c r="H31">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I31">
-        <v>984.3093152087774</v>
+        <v>1179.215868129584</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>533.3025239360654</v>
+        <v>484.1555059380239</v>
       </c>
       <c r="C32">
-        <v>0.334491494492037</v>
+        <v>0.5685805255880269</v>
       </c>
       <c r="D32">
-        <v>64.56843539849559</v>
+        <v>109.6294036136839</v>
       </c>
       <c r="E32">
-        <v>82.74495545285322</v>
+        <v>140.6528149021774</v>
       </c>
       <c r="F32">
-        <v>52.7514917838642</v>
+        <v>89.49034606806222</v>
       </c>
       <c r="G32">
-        <v>103.2456013345817</v>
+        <v>175.3054865200935</v>
       </c>
       <c r="H32">
-        <v>10.16323007033956</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I32">
-        <v>847.1107294706917</v>
+        <v>1017.077957103313</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>387.283382451273</v>
+        <v>351.5929018827672</v>
       </c>
       <c r="C33">
-        <v>0.3493577831361275</v>
+        <v>0.5938507711697169</v>
       </c>
       <c r="D33">
-        <v>72.99040523308192</v>
+        <v>123.9288910415557</v>
       </c>
       <c r="E33">
-        <v>82.74495545285322</v>
+        <v>140.6528149021774</v>
       </c>
       <c r="F33">
-        <v>35.16766118924279</v>
+        <v>59.66023071204146</v>
       </c>
       <c r="G33">
-        <v>64.78155377856102</v>
+        <v>109.9955993851568</v>
       </c>
       <c r="H33">
-        <v>10.16323007033956</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I33">
-        <v>653.4805459584876</v>
+        <v>803.7001082305524</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>289.2369565142419</v>
+        <v>262.5820406466236</v>
       </c>
       <c r="C34">
-        <v>0.2675931955936296</v>
+        <v>0.4548644204704214</v>
       </c>
       <c r="D34">
-        <v>42.1098491729319</v>
+        <v>71.49743713935901</v>
       </c>
       <c r="E34">
-        <v>54.514323592468</v>
+        <v>92.66538393555211</v>
       </c>
       <c r="F34">
-        <v>20.5144690270583</v>
+        <v>34.80180124869086</v>
       </c>
       <c r="G34">
-        <v>64.78155377856102</v>
+        <v>109.9955993851568</v>
       </c>
       <c r="I34">
-        <v>471.4247452808548</v>
+        <v>571.9971267758527</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>201.6955047847497</v>
+        <v>183.1080574000668</v>
       </c>
       <c r="C35">
-        <v>0.1337965977968148</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D35">
-        <v>28.0732327819546</v>
+        <v>47.66495809290603</v>
       </c>
       <c r="E35">
-        <v>44.77962295095585</v>
+        <v>76.11799394706064</v>
       </c>
       <c r="F35">
-        <v>21.49134850453726</v>
+        <v>36.4590298795809</v>
       </c>
       <c r="G35">
-        <v>38.46404755602063</v>
+        <v>65.30988713493677</v>
       </c>
       <c r="H35">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I35">
-        <v>337.1783606935998</v>
+        <v>413.2063135487074</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>115.2045504760115</v>
+        <v>104.5877619524687</v>
       </c>
       <c r="C36">
-        <v>0.2898926285597655</v>
+        <v>0.4927697888429566</v>
       </c>
       <c r="D36">
-        <v>2.807323278195459</v>
+        <v>4.766495809290603</v>
       </c>
       <c r="E36">
-        <v>21.41634141132671</v>
+        <v>36.40425797468119</v>
       </c>
       <c r="F36">
-        <v>63.49716603613284</v>
+        <v>107.7198610078526</v>
       </c>
       <c r="G36">
-        <v>54.65943600066088</v>
+        <v>92.80878698122598</v>
       </c>
       <c r="H36">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I36">
-        <v>259.1451135896796</v>
+        <v>348.9394109563225</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>60.92885040372649</v>
+        <v>55.31389233960347</v>
       </c>
       <c r="C37">
-        <v>0.1486628864409053</v>
+        <v>0.2527024558169008</v>
       </c>
       <c r="D37">
-        <v>2.807323278195459</v>
+        <v>4.766495809290603</v>
       </c>
       <c r="E37">
-        <v>7.787760513209713</v>
+        <v>13.23791199079316</v>
       </c>
       <c r="F37">
-        <v>40.05205857663762</v>
+        <v>67.94637386649165</v>
       </c>
       <c r="G37">
-        <v>42.51289466718067</v>
+        <v>72.18461209650908</v>
       </c>
       <c r="H37">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I37">
-        <v>158.0487616017682</v>
+        <v>220.1804208843864</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>43.77072586474605</v>
+        <v>39.73699162327839</v>
       </c>
       <c r="C38">
-        <v>0.03716572161022633</v>
+        <v>0.0631756139542252</v>
       </c>
       <c r="D38">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="F38">
-        <v>25.39886641445312</v>
+        <v>43.08794440314104</v>
       </c>
       <c r="G38">
-        <v>40.48847111160065</v>
+        <v>68.74724961572299</v>
       </c>
       <c r="H38">
-        <v>6.352018793962228</v>
+        <v>10.79738720980257</v>
       </c>
       <c r="I38">
-        <v>121.6618944627632</v>
+        <v>171.9657400844804</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>31.86508842953512</v>
+        <v>28.92852990174664</v>
       </c>
       <c r="C39">
-        <v>0.05203201025431688</v>
+        <v>0.08844585953591527</v>
       </c>
       <c r="D39">
-        <v>14.0366163909773</v>
+        <v>23.83247904645301</v>
       </c>
       <c r="F39">
-        <v>11.7225537297476</v>
+        <v>19.88674357068048</v>
       </c>
       <c r="G39">
-        <v>36.4396240004406</v>
+        <v>61.87252465415065</v>
       </c>
       <c r="H39">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I39">
-        <v>95.38631831974737</v>
+        <v>136.7682004745272</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>32.21525423645308</v>
+        <v>29.24642583473289</v>
       </c>
       <c r="C40">
-        <v>0.04459886593227159</v>
+        <v>0.07581073674507023</v>
       </c>
       <c r="D40">
-        <v>5.614646556390919</v>
+        <v>9.532991618581207</v>
       </c>
       <c r="E40">
-        <v>8.761230577360928</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F40">
-        <v>19.53758954957933</v>
+        <v>33.1445726178008</v>
       </c>
       <c r="G40">
-        <v>32.39077688928051</v>
+        <v>54.99779969257838</v>
       </c>
       <c r="H40">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I40">
-        <v>101.1049041925819</v>
+        <v>146.2092063740017</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>82.2889646257225</v>
+        <v>74.70554425176331</v>
       </c>
       <c r="C41">
-        <v>0.05946515457636214</v>
+        <v>0.1010809823267603</v>
       </c>
       <c r="D41">
-        <v>11.22929311278184</v>
+        <v>19.06598323716241</v>
       </c>
       <c r="E41">
-        <v>6.8142904490585</v>
+        <v>11.58317299194401</v>
       </c>
       <c r="F41">
-        <v>18.56071007210036</v>
+        <v>31.48734398691077</v>
       </c>
       <c r="G41">
-        <v>50.61058888950081</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H41">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I41">
-        <v>170.8337160625328</v>
+        <v>225.0366649117215</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>190.8403647702928</v>
+        <v>173.2532834774938</v>
       </c>
       <c r="C42">
-        <v>0.1189303091527243</v>
+        <v>0.2021619646535207</v>
       </c>
       <c r="D42">
-        <v>42.1098491729319</v>
+        <v>71.49743713935901</v>
       </c>
       <c r="E42">
-        <v>38.93880256604857</v>
+        <v>66.1895599539658</v>
       </c>
       <c r="F42">
-        <v>47.86709439646934</v>
+        <v>81.20420291361197</v>
       </c>
       <c r="G42">
-        <v>89.07463644552146</v>
+        <v>151.2439491545905</v>
       </c>
       <c r="H42">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I42">
-        <v>416.5721002131714</v>
+        <v>556.5474592554377</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>376.428242436816</v>
+        <v>341.738127960194</v>
       </c>
       <c r="C43">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D43">
-        <v>47.72449572932281</v>
+        <v>81.03042875794026</v>
       </c>
       <c r="E43">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F43">
-        <v>82.05787610823322</v>
+        <v>139.2072049947635</v>
       </c>
       <c r="G43">
-        <v>111.3432955569018</v>
+        <v>189.0549364432381</v>
       </c>
       <c r="H43">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I43">
-        <v>693.4456003280883</v>
+        <v>880.0340898147834</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>614.190825334116</v>
+        <v>557.5894664578423</v>
       </c>
       <c r="C44">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D44">
-        <v>106.6782845714275</v>
+        <v>181.1268407530429</v>
       </c>
       <c r="E44">
-        <v>84.69189558115568</v>
+        <v>143.9622928998756</v>
       </c>
       <c r="F44">
-        <v>109.4105014776442</v>
+        <v>185.6096066596845</v>
       </c>
       <c r="G44">
-        <v>182.198120002203</v>
+        <v>309.3626232707533</v>
       </c>
       <c r="H44">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I44">
-        <v>1112.518536092564</v>
+        <v>1403.741451063797</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>716.4392409541628</v>
+        <v>650.4150788898203</v>
       </c>
       <c r="C45">
-        <v>0.1560960307629506</v>
+        <v>0.2653375786077459</v>
       </c>
       <c r="D45">
-        <v>120.7149009624047</v>
+        <v>204.9593197994959</v>
       </c>
       <c r="E45">
-        <v>73.01025481134107</v>
+        <v>124.1054249136858</v>
       </c>
       <c r="F45">
-        <v>109.4105014776442</v>
+        <v>185.6096066596845</v>
       </c>
       <c r="G45">
-        <v>212.5644733359033</v>
+        <v>360.9230604825455</v>
       </c>
       <c r="H45">
-        <v>29.21928645222624</v>
+        <v>49.66798116509182</v>
       </c>
       <c r="I45">
-        <v>1261.514754024445</v>
+        <v>1575.945809488931</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>602.9855195127417</v>
+        <v>547.4167966022832</v>
       </c>
       <c r="C46">
-        <v>0.2155611853393127</v>
+        <v>0.3664185609345062</v>
       </c>
       <c r="D46">
-        <v>151.5954570225549</v>
+        <v>257.3907737016925</v>
       </c>
       <c r="E46">
-        <v>65.22249429813135</v>
+        <v>110.8675129228927</v>
       </c>
       <c r="F46">
-        <v>209.052208180499</v>
+        <v>354.6469270104685</v>
       </c>
       <c r="G46">
-        <v>410.9579817827467</v>
+        <v>697.7845835995882</v>
       </c>
       <c r="H46">
-        <v>22.86726765826401</v>
+        <v>38.87059395528924</v>
       </c>
       <c r="I46">
-        <v>1462.896489640277</v>
+        <v>2007.343606353149</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>413.1956521632025</v>
+        <v>375.117200923748</v>
       </c>
       <c r="C47">
-        <v>0.2675931955936296</v>
+        <v>0.4548644204704214</v>
       </c>
       <c r="D47">
-        <v>87.02702162405924</v>
+        <v>147.7613700880087</v>
       </c>
       <c r="E47">
-        <v>57.43473378492163</v>
+        <v>97.62960093209955</v>
       </c>
       <c r="F47">
-        <v>255.9424230994892</v>
+        <v>434.1939012931907</v>
       </c>
       <c r="G47">
-        <v>289.4925684479446</v>
+        <v>491.5428347524192</v>
       </c>
       <c r="H47">
-        <v>21.59686389947157</v>
+        <v>36.71111651332873</v>
       </c>
       <c r="I47">
-        <v>1124.956856214682</v>
+        <v>1583.410888923265</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>453.1145541518511</v>
+        <v>411.3573372841781</v>
       </c>
       <c r="C48">
-        <v>0.304758917203856</v>
+        <v>0.5180400344246466</v>
       </c>
       <c r="D48">
-        <v>210.5492458646595</v>
+        <v>357.4871856967952</v>
       </c>
       <c r="E48">
-        <v>61.32861404152651</v>
+        <v>104.2485569274961</v>
       </c>
       <c r="F48">
-        <v>247.1505078021786</v>
+        <v>419.2788436151803</v>
       </c>
       <c r="G48">
-        <v>378.5672048934661</v>
+        <v>642.78678390701</v>
       </c>
       <c r="H48">
-        <v>30.48969021101868</v>
+        <v>51.82745860705233</v>
       </c>
       <c r="I48">
-        <v>1381.504575881904</v>
+        <v>1987.504206072136</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>381.3305637336676</v>
+        <v>346.1886710220012</v>
       </c>
       <c r="C49">
-        <v>0.252726906949539</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D49">
-        <v>137.5588406315775</v>
+        <v>233.5582946552396</v>
       </c>
       <c r="E49">
-        <v>65.22249429813135</v>
+        <v>110.8675129228927</v>
       </c>
       <c r="F49">
-        <v>167.0463906489032</v>
+        <v>283.3860958821968</v>
       </c>
       <c r="G49">
-        <v>491.934924005948</v>
+        <v>835.2790828310341</v>
       </c>
       <c r="H49">
-        <v>15.24484510550934</v>
+        <v>25.91372930352616</v>
       </c>
       <c r="I49">
-        <v>1258.590785330686</v>
+        <v>1835.62298079178</v>
       </c>
     </row>
   </sheetData>
